--- a/snippets/moegirl-snippets.xlsx
+++ b/snippets/moegirl-snippets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\moegirl-helper\snippets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A4C30F-7527-423E-A17F-8915C8D08F0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B8DD1A-E890-4D12-8AF3-26134BE7EB08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>prefix</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -132,7 +132,157 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Day Countdown
+    <t>Death date and age</t>
+  </si>
+  <si>
+    <t>Death date and age|${1:}|${2:}|${3:}|${4:}|${5:}|${6:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示逝世日期并自动加注年龄 {{Death date and age|2011|10|5|1955|2|24}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>for year month day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for year month day | year=${1:} | month=${2:} | day=${3:} </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算指定时间与现在时间的天数差 {{ for year month day | year= 2018| month= 3| day= 1}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendlyTimeDelta</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendlyTimeDelta|${1:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入秒数，根据数值大小自动换算成日时分秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>max|${1:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算一组数据的最大值 {{max|-7|5|8}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算距离指定月日的天数 {{生日倒计时|12|4}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算指定时间与现在的差 {{Countdown|time=2050-01-01T08:00:00Z|before=你醒啦，新年已经结束啦|after=距离元旦还有$1}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入图片原宽、原高以及目标高、按比例缩放输出目标宽 {{缩放计算|120|100|50}}=60</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Till last year</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示去年的年份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Countdown</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对日期的倒计时模板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时倒计时模板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>\格式模板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑幕</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑幕|${1:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡话|${1:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JK|${1:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jk|${1:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日倒计时|${1:}|${2:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放计算|${1:}|${2:}|${3:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chemify</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动将化学式中的数字转化为上下标 {{Chemify|IO6[5-]}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chemify|${1:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日倒计时;shengridaojishi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放计算;suofangjisuan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑幕;heimu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡话;huhua</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day Countdown
 |name=${1:}
 |address=${2:}
 |logo=${3:}
@@ -144,90 +294,11 @@
 |utc_offset=+${9:} hours
 |on_day_text=${10:}
 |over_day_text=${11:}
-|permanentCountdown=${12:}
-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Death date and age</t>
-  </si>
-  <si>
-    <t>Death date and age|${1:}|${2:}|${3:}|${4:}|${5:}|${6:}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示逝世日期并自动加注年龄 {{Death date and age|2011|10|5|1955|2|24}}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>for year month day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for year month day | year=${1:} | month=${2:} | day=${3:} </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算指定时间与现在时间的天数差 {{ for year month day | year= 2018| month= 3| day= 1}}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendlyTimeDelta</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendlyTimeDelta|${1:}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入秒数，根据数值大小自动换算成日时分秒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>max|${1:}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>max</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算一组数据的最大值 {{max|-7|5|8}}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算距离指定月日的天数 {{生日倒计时|12|4}}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算指定时间与现在的差 {{Countdown|time=2050-01-01T08:00:00Z|before=你醒啦，新年已经结束啦|after=距离元旦还有$1}}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放计算</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入图片原宽、原高以及目标高、按比例缩放输出目标宽 {{缩放计算|120|100|50}}=60</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Till last year</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示去年的年份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time Countdown</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对日期的倒计时模板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Countdown
+|permanentCountdown=${12:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Countdown
 |name=${1:}
 |address=${2:}
 |logo=${3:}
@@ -236,76 +307,7 @@
 |day=${6:}
 |time=${7:}
 |over_text=${8:}
-|permanentCountdown=${12:}
-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时倒计时模板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>\格式模板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑幕</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑幕|${1:}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡话</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡话|${1:}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除线</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>JK</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>JK|${1:}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jk|${1:}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日倒计时|${1:}|${2:}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放计算|${1:}|${2:}|${3:}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日倒计时</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chemify</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动将化学式中的数字转化为上下标 {{Chemify|IO6[5-]}}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chemify|${1:}</t>
+|permanentCountdown=${12:}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1319,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1423,7 +1425,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1437,163 +1439,163 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="196" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="182" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="140" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="154" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/snippets/moegirl-snippets.xlsx
+++ b/snippets/moegirl-snippets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\moegirl-helper\snippets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B8DD1A-E890-4D12-8AF3-26134BE7EB08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB489C97-126B-42B9-B691-4F68301449B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="moegirl模板" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
   <si>
     <t>prefix</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -230,22 +230,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>JK</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>JK|${1:}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jk|${1:}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>生日倒计时|${1:}|${2:}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -275,10 +259,6 @@
   </si>
   <si>
     <t>黑幕;heimu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡话;huhua</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -310,12 +290,324 @@
 |permanentCountdown=${12:}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算星座</t>
+  </si>
+  <si>
+    <t>计算年龄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">出生日期 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期与年龄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字颜色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>色块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间差</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当年的第几天</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时模板（天）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>逝世日期与年龄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数差</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒换算为日时分秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离指定月日的天数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放计算</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年的年份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时模板（秒）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡话;huhua;JK;jk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空版式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>让模板之后的内容不受前面版式的影响</t>
+  </si>
+  <si>
+    <t>----</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分隔线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文缩写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbr|${1:}|${2:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示缩写形式，鼠标悬停时显示完整形式 {{abbr| MSLP| Mean Sea Level Pressure}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部注解</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllReferences</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>为尚未产生references的所有refer产生references</t>
+  </si>
+  <si>
+    <t>阿尔卡那牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arcana</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arcana|${1:}|${2:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔卡那牌快速写入模板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background color</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background color|${1:}|${2:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示指定背景色的文字 {{Background color|#d56d88|MAYU}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红色</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF222222"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>粗体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大号</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigRed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时提供红色、粗体、大号字体效果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B站链接</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilibililink</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilibililink|${1:}|${2:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B站链接 {{Bilibililink|av2277741|结城友奈是勇者 勇者部活动生报告 第3回}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无样式链接</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blnk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blnk|${1:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>与默认样式相同的内部链接，不变蓝不下划线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌/燃王</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BmoeWinnerQuote</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BmoeWinnerQuote
+|种类 = ${1:1}
+|冠军 = ${2:}
+|地区 = ${3:}
+|性别 = ${4:}
+|年份 = ${5:}
+|台词 = ${6:}
+|图片 = ${7:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Bilibili Moe 动画角色人气大赏各年度条目中引用当届萌/燃王的名台词</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>边框</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>border</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>为文字或图片显示边框</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下对齐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom|${1:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将文字垂直向下对齐</t>
+  </si>
+  <si>
+    <t>彩色幕</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色幕|${1:}|${2:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{彩色幕|要掩盖的文字|#66ccff}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加分类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cate|${1:}|${2:}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示字符串的同时附加分类</t>
+  </si>
+  <si>
+    <t>彩色幕;caisemu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +789,40 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -939,7 +1265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,6 +1288,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1319,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1330,272 +1674,510 @@
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.9140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.4140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="34.58203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="182" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="196" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>62</v>
+    <row r="16" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>43</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="140" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:4" ht="154" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="6" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="112" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>52</v>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
